--- a/data/trans_orig/P15B_tráfico-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P15B_tráfico-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5463</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1939</v>
+        <v>1800</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10301</v>
+        <v>10673</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2890597611572718</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1026158346350071</v>
+        <v>0.0952368570041268</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5450096302830845</v>
+        <v>0.5647198709425724</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>3106</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7319</v>
+        <v>8301</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1247834979335651</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0392670720386593</v>
+        <v>0.03900062046127771</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2939934280569272</v>
+        <v>0.333430903857348</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>8570</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4176</v>
+        <v>3863</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15459</v>
+        <v>15285</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1956779671928833</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09536022704002496</v>
+        <v>0.08821517145083456</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3529826949305359</v>
+        <v>0.3490207596210242</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>13437</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8599</v>
+        <v>8227</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16961</v>
+        <v>17100</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7109402388427282</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4549903697169156</v>
+        <v>0.4352801290574275</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.897384165364993</v>
+        <v>0.9047631429958732</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -836,19 +836,19 @@
         <v>21789</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17576</v>
+        <v>16594</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23917</v>
+        <v>23924</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8752165020664349</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7060065719430727</v>
+        <v>0.6665690961426519</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9607329279613407</v>
+        <v>0.9609993795387223</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -857,19 +857,19 @@
         <v>35225</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28336</v>
+        <v>28510</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39619</v>
+        <v>39932</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8043220328071167</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6470173050694643</v>
+        <v>0.6509792403789757</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9046397729599751</v>
+        <v>0.9117848285491654</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>11574</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6751</v>
+        <v>6544</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17524</v>
+        <v>17280</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3363188260139681</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1961759628172715</v>
+        <v>0.1901540941781345</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.509204458073957</v>
+        <v>0.502109330409951</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -982,19 +982,19 @@
         <v>3951</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1030</v>
+        <v>999</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9367</v>
+        <v>9204</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1298062934669379</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03383262674984431</v>
+        <v>0.0328341518210029</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3077665620720093</v>
+        <v>0.3024046707795411</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -1003,19 +1003,19 @@
         <v>15525</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9383</v>
+        <v>9087</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23377</v>
+        <v>22842</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2393955695429724</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1446826475604206</v>
+        <v>0.14012462444406</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3604731015498351</v>
+        <v>0.3522284913393117</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>22840</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16890</v>
+        <v>17134</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27663</v>
+        <v>27870</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.663681173986032</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4907955419260431</v>
+        <v>0.497890669590049</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8038240371827285</v>
+        <v>0.8098459058218656</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -1053,19 +1053,19 @@
         <v>26486</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21070</v>
+        <v>21233</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29407</v>
+        <v>29438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8701937065330622</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6922334379279919</v>
+        <v>0.6975953292204606</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9661673732501558</v>
+        <v>0.9671658481789971</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>47</v>
@@ -1074,19 +1074,19 @@
         <v>49326</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41474</v>
+        <v>42009</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>55468</v>
+        <v>55764</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7606044304570275</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6395268984501649</v>
+        <v>0.6477715086606872</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8553173524395795</v>
+        <v>0.85987537555594</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>9763</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4922</v>
+        <v>4850</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16949</v>
+        <v>16638</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2211465800696209</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1114863815899186</v>
+        <v>0.1098640258992947</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.383894239134709</v>
+        <v>0.3768698515856826</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1199,19 +1199,19 @@
         <v>9633</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4808</v>
+        <v>5076</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15470</v>
+        <v>15038</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3781327419816506</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1887412605659928</v>
+        <v>0.1992625464190992</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6072315685982387</v>
+        <v>0.5902884158563086</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1220,19 +1220,19 @@
         <v>19396</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12442</v>
+        <v>11849</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27166</v>
+        <v>27464</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2785881514868261</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1787057780064721</v>
+        <v>0.1701788310791197</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3901833308915192</v>
+        <v>0.3944596943421247</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>34386</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27200</v>
+        <v>27511</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39227</v>
+        <v>39299</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7788534199303792</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.616105760865291</v>
+        <v>0.6231301484143179</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8885136184100815</v>
+        <v>0.8901359741007053</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1270,19 +1270,19 @@
         <v>15843</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10006</v>
+        <v>10438</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20668</v>
+        <v>20400</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6218672580183494</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3927684314017614</v>
+        <v>0.4097115841436905</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8112587394340068</v>
+        <v>0.8007374535809009</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>48</v>
@@ -1291,19 +1291,19 @@
         <v>50228</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42458</v>
+        <v>42160</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>57182</v>
+        <v>57775</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.721411848513174</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6098166691084812</v>
+        <v>0.6055403056578755</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8212942219935282</v>
+        <v>0.8298211689208803</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>12962</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7926</v>
+        <v>7672</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17914</v>
+        <v>17681</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5254328624774913</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3212699140194394</v>
+        <v>0.3109799267242133</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7261457825008043</v>
+        <v>0.7167086629781053</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1416,19 +1416,19 @@
         <v>3011</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>879</v>
+        <v>839</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6232</v>
+        <v>6239</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2763574766476481</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08066412608888188</v>
+        <v>0.07696223358875499</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5719715191680611</v>
+        <v>0.5726873191666243</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1437,19 +1437,19 @@
         <v>15973</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9821</v>
+        <v>9674</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22311</v>
+        <v>22340</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.449133754954221</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2761376771043115</v>
+        <v>0.2720001764741277</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6273317652769581</v>
+        <v>0.6281332199336188</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>11708</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6756</v>
+        <v>6989</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16744</v>
+        <v>16998</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4745671375225086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2738542174991955</v>
+        <v>0.2832913370218949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6787300859805605</v>
+        <v>0.6890200732757868</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1487,19 +1487,19 @@
         <v>7884</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4663</v>
+        <v>4656</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10016</v>
+        <v>10056</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7236425233523519</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.428028480831939</v>
+        <v>0.4273126808333754</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9193358739111182</v>
+        <v>0.9230377664112451</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -1508,19 +1508,19 @@
         <v>19592</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13254</v>
+        <v>13225</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25744</v>
+        <v>25891</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.550866245045779</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.372668234723042</v>
+        <v>0.3718667800663814</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7238623228956886</v>
+        <v>0.7279998235258726</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>39763</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29739</v>
+        <v>30215</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51188</v>
+        <v>51144</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3255731385982293</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.243495350460175</v>
+        <v>0.2473978852353223</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4191168148749098</v>
+        <v>0.4187592931201684</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1633,19 +1633,19 @@
         <v>19701</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12685</v>
+        <v>11544</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29832</v>
+        <v>27342</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2148410517453554</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1383240537505718</v>
+        <v>0.1258845881417766</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.325309391234004</v>
+        <v>0.2981606821648516</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -1654,19 +1654,19 @@
         <v>59465</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46181</v>
+        <v>45892</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>74342</v>
+        <v>73850</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2780863196344445</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2159670866639493</v>
+        <v>0.214612166325015</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3476628726117936</v>
+        <v>0.3453598617982956</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>82370</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70945</v>
+        <v>70989</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>92394</v>
+        <v>91918</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6744268614017707</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5808831851250895</v>
+        <v>0.5812407068798301</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7565046495398248</v>
+        <v>0.7526021147646776</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>69</v>
@@ -1704,19 +1704,19 @@
         <v>72001</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>61870</v>
+        <v>64360</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>79017</v>
+        <v>80158</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7851589482546446</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6746906087659961</v>
+        <v>0.7018393178351484</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8616759462494282</v>
+        <v>0.8741154118582233</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>150</v>
@@ -1725,19 +1725,19 @@
         <v>154370</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>139493</v>
+        <v>139985</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>167654</v>
+        <v>167943</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7219136803655556</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6523371273882059</v>
+        <v>0.6546401382017044</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7840329133360505</v>
+        <v>0.785387833674985</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>26359</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17392</v>
+        <v>18554</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35246</v>
+        <v>36510</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3413778076642379</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2252493494617213</v>
+        <v>0.2403009963650954</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4564776231728303</v>
+        <v>0.4728433005985039</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -2090,19 +2090,19 @@
         <v>20917</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13887</v>
+        <v>13635</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29611</v>
+        <v>29163</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2599089325829642</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1725486279511015</v>
+        <v>0.1694257392265746</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3679303470420423</v>
+        <v>0.3623638097397517</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -2111,19 +2111,19 @@
         <v>47277</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36172</v>
+        <v>35396</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59925</v>
+        <v>59821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2997994556200471</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2293813072945667</v>
+        <v>0.2244590887734113</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.380007871764805</v>
+        <v>0.3793485677008177</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>50854</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41967</v>
+        <v>40703</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59821</v>
+        <v>58659</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6586221923357621</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5435223768271698</v>
+        <v>0.527156699401496</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7747506505382787</v>
+        <v>0.7596990036349046</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -2161,19 +2161,19 @@
         <v>59563</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50869</v>
+        <v>51317</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66593</v>
+        <v>66845</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7400910674170358</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6320696529579577</v>
+        <v>0.6376361902602484</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8274513720488986</v>
+        <v>0.8305742607734254</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>103</v>
@@ -2182,19 +2182,19 @@
         <v>110417</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>97769</v>
+        <v>97873</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>121522</v>
+        <v>122298</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7002005443799529</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.619992128235195</v>
+        <v>0.6206514322991823</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7706186927054328</v>
+        <v>0.7755409112265887</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>15192</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8721</v>
+        <v>9314</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25386</v>
+        <v>25098</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1568852199323423</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09006783654346437</v>
+        <v>0.09619065979982275</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2621676210983785</v>
+        <v>0.2591950219422638</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -2307,19 +2307,19 @@
         <v>12766</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6976</v>
+        <v>6930</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21106</v>
+        <v>21548</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1534884946747728</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08387292093165365</v>
+        <v>0.08331772967032221</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2537638383242414</v>
+        <v>0.2590760740161643</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -2328,19 +2328,19 @@
         <v>27957</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19181</v>
+        <v>17910</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39075</v>
+        <v>39108</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1553157364120641</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1065602725716085</v>
+        <v>0.09949887857410361</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2170772672015197</v>
+        <v>0.2172598697529839</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>81640</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>71446</v>
+        <v>71734</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>88111</v>
+        <v>87518</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8431147800676577</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7378323789016215</v>
+        <v>0.7408049780577366</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9099321634565357</v>
+        <v>0.9038093402001778</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>66</v>
@@ -2378,19 +2378,19 @@
         <v>70406</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>62066</v>
+        <v>61624</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>76196</v>
+        <v>76242</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8465115053252272</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7462361616757587</v>
+        <v>0.7409239259838357</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9161270790683462</v>
+        <v>0.9166822703296778</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>146</v>
@@ -2399,19 +2399,19 @@
         <v>152047</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>140929</v>
+        <v>140896</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>160823</v>
+        <v>162094</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8446842635879359</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7829227327984812</v>
+        <v>0.7827401302470161</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8934397274283915</v>
+        <v>0.9005011214258968</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>17684</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11201</v>
+        <v>11529</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25610</v>
+        <v>25215</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2616122643163846</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1657075673404343</v>
+        <v>0.1705480540514842</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3788687345065637</v>
+        <v>0.373014936322602</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -2524,19 +2524,19 @@
         <v>9870</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5045</v>
+        <v>4983</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17167</v>
+        <v>17985</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1553488576706174</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07940379862382241</v>
+        <v>0.07842495679776659</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2702085829834091</v>
+        <v>0.2830823241238008</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -2545,19 +2545,19 @@
         <v>27554</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19023</v>
+        <v>18894</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38013</v>
+        <v>37300</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2101274256870838</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1450717447086516</v>
+        <v>0.1440868649428202</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2898893002652104</v>
+        <v>0.2844476873374904</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>49913</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41987</v>
+        <v>42382</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>56396</v>
+        <v>56068</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7383877356836154</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6211312654934363</v>
+        <v>0.6269850636773979</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8342924326595658</v>
+        <v>0.8294519459485152</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -2595,19 +2595,19 @@
         <v>53663</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46366</v>
+        <v>45548</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>58488</v>
+        <v>58550</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8446511423293825</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7297914170165909</v>
+        <v>0.7169176758761993</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9205962013761777</v>
+        <v>0.9215750432022335</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>100</v>
@@ -2616,19 +2616,19 @@
         <v>103576</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>93117</v>
+        <v>93830</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>112107</v>
+        <v>112236</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7898725743129162</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7101106997347895</v>
+        <v>0.7155523126625094</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8549282552913474</v>
+        <v>0.8559131350571798</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>14097</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8258</v>
+        <v>8188</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22131</v>
+        <v>21083</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3256803422626339</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1907826554124084</v>
+        <v>0.1891656660542075</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5112871744766959</v>
+        <v>0.4870924541440067</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -2741,19 +2741,19 @@
         <v>4720</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1746</v>
+        <v>1458</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9874</v>
+        <v>10286</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1729763940279002</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0639783666727663</v>
+        <v>0.05342305855624288</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3618375634801709</v>
+        <v>0.3769116381457333</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -2762,19 +2762,19 @@
         <v>18817</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11786</v>
+        <v>11726</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27284</v>
+        <v>27195</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2666328401757208</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1670003136853382</v>
+        <v>0.166148518602205</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3866008196536447</v>
+        <v>0.3853361866285268</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>29187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21153</v>
+        <v>22201</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>35026</v>
+        <v>35096</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6743196577373661</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.488712825523304</v>
+        <v>0.5129075458559934</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8092173445875915</v>
+        <v>0.810834333945793</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -2812,19 +2812,19 @@
         <v>22569</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17415</v>
+        <v>17003</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25543</v>
+        <v>25831</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8270236059720998</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.638162436519829</v>
+        <v>0.6230883618542669</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9360216333272336</v>
+        <v>0.9465769414437557</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -2833,19 +2833,19 @@
         <v>51757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>43290</v>
+        <v>43379</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>58788</v>
+        <v>58848</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7333671598242792</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6133991803463552</v>
+        <v>0.6146638133714732</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8329996863146618</v>
+        <v>0.8338514813977947</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>73332</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58067</v>
+        <v>59629</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89770</v>
+        <v>90001</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2573696754457648</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2037974023150111</v>
+        <v>0.2092789886421664</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.315063571675555</v>
+        <v>0.3158724993836448</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -2958,19 +2958,19 @@
         <v>48274</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37180</v>
+        <v>36618</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63519</v>
+        <v>62593</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.189699374313499</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1461049153984061</v>
+        <v>0.1438944939740971</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2496061502786301</v>
+        <v>0.2459688896807862</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -2979,19 +2979,19 @@
         <v>121605</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101741</v>
+        <v>102143</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141987</v>
+        <v>144592</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2254446831687907</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.18861832772566</v>
+        <v>0.1893631727369072</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2632303402139191</v>
+        <v>0.2680589733584697</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>211595</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195157</v>
+        <v>194926</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>226860</v>
+        <v>225298</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7426303245542352</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6849364283244448</v>
+        <v>0.6841275006163552</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7962025976849886</v>
+        <v>0.7907210113578336</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>192</v>
@@ -3029,19 +3029,19 @@
         <v>206201</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>190956</v>
+        <v>191882</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217295</v>
+        <v>217857</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8103006256865011</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7503938497213697</v>
+        <v>0.7540311103192139</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8538950846015938</v>
+        <v>0.856105506025903</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>396</v>
@@ -3050,19 +3050,19 @@
         <v>417797</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>397415</v>
+        <v>394810</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>437661</v>
+        <v>437259</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7745553168312093</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7367696597860809</v>
+        <v>0.73194102664153</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.81138167227434</v>
+        <v>0.8106368272630926</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>18615</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12093</v>
+        <v>11689</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27912</v>
+        <v>27072</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2502616162993989</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1625752407777662</v>
+        <v>0.1571546598128178</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3752492340137832</v>
+        <v>0.3639536175667126</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -3415,19 +3415,19 @@
         <v>12129</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6818</v>
+        <v>6599</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19614</v>
+        <v>19968</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1781519145054171</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1001449392800971</v>
+        <v>0.09692385417017167</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2880883109270327</v>
+        <v>0.2932870002065019</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -3436,19 +3436,19 @@
         <v>30744</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22514</v>
+        <v>20861</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40609</v>
+        <v>41212</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.215800361356078</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1580269990185993</v>
+        <v>0.1464234450627322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2850443554837816</v>
+        <v>0.2892713898822175</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>55767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46470</v>
+        <v>47310</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62289</v>
+        <v>62693</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7497383837006011</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6247507659862168</v>
+        <v>0.6360463824332875</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8374247592222339</v>
+        <v>0.8428453401871823</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -3486,19 +3486,19 @@
         <v>55956</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48471</v>
+        <v>48117</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61267</v>
+        <v>61486</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8218480854945829</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7119116890729673</v>
+        <v>0.7067129997934981</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8998550607199028</v>
+        <v>0.9030761458298283</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>104</v>
@@ -3507,19 +3507,19 @@
         <v>111723</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>101858</v>
+        <v>101255</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>119953</v>
+        <v>121606</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7841996386439221</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7149556445162183</v>
+        <v>0.7107286101177827</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8419730009814006</v>
+        <v>0.8535765549372677</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>9450</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5140</v>
+        <v>4930</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17059</v>
+        <v>16545</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1886077290174304</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1025822978295102</v>
+        <v>0.0984022076329633</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3404829176153155</v>
+        <v>0.3302159065063424</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -3632,19 +3632,19 @@
         <v>7014</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3097</v>
+        <v>2994</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13593</v>
+        <v>13070</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1409889529781153</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06224978448658766</v>
+        <v>0.06017067403909265</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.27321519159817</v>
+        <v>0.2627165887279414</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -3653,19 +3653,19 @@
         <v>16464</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10422</v>
+        <v>9700</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26046</v>
+        <v>25414</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1648821304578576</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1043753099495936</v>
+        <v>0.09714537093413141</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2608363695160105</v>
+        <v>0.2545132769030148</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>40653</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33044</v>
+        <v>33558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44963</v>
+        <v>45173</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8113922709825695</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6595170823846848</v>
+        <v>0.6697840934936582</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8974177021704898</v>
+        <v>0.9015977923670367</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -3703,19 +3703,19 @@
         <v>42737</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36158</v>
+        <v>36681</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46654</v>
+        <v>46757</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8590110470218847</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7267848084018301</v>
+        <v>0.7372834112720584</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9377502155134123</v>
+        <v>0.9398293259609075</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>76</v>
@@ -3724,19 +3724,19 @@
         <v>83390</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>73808</v>
+        <v>74440</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>89432</v>
+        <v>90154</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8351178695421424</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7391636304839905</v>
+        <v>0.7454867230969849</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.895624690050407</v>
+        <v>0.9028546290658686</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>7112</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3088</v>
+        <v>3024</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13484</v>
+        <v>13111</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1514537698353431</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06576628936861553</v>
+        <v>0.06440163580568496</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2871434164682867</v>
+        <v>0.2791936888995442</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3849,19 +3849,19 @@
         <v>11097</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5718</v>
+        <v>6100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18048</v>
+        <v>18652</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2213246339389028</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.114039558928262</v>
+        <v>0.1216575761980376</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3599715208325419</v>
+        <v>0.3720204416756265</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -3870,19 +3870,19 @@
         <v>18209</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10809</v>
+        <v>11570</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26952</v>
+        <v>27615</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1875331860876344</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1113226421894849</v>
+        <v>0.1191599239986981</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2775804135971378</v>
+        <v>0.2844090485008013</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>39847</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33475</v>
+        <v>33848</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43871</v>
+        <v>43935</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8485462301646569</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7128565835317132</v>
+        <v>0.7208063111004557</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9342337106313846</v>
+        <v>0.935598364194315</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -3920,19 +3920,19 @@
         <v>39041</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32090</v>
+        <v>31486</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44420</v>
+        <v>44038</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7786753660610972</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6400284791674581</v>
+        <v>0.6279795583243737</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.885960441071738</v>
+        <v>0.8783424238019625</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>73</v>
@@ -3941,19 +3941,19 @@
         <v>78888</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>70145</v>
+        <v>69482</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>86288</v>
+        <v>85527</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8124668139123656</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7224195864028622</v>
+        <v>0.7155909514991985</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8886773578105152</v>
+        <v>0.8808400760013018</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>7484</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3221</v>
+        <v>3804</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12838</v>
+        <v>12753</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2956906821235972</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.127260974641067</v>
+        <v>0.1503212295001526</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5072572206589653</v>
+        <v>0.503887131212475</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4607</v>
+        <v>5822</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04814045831514739</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2054013740660581</v>
+        <v>0.2595531477366311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -4087,19 +4087,19 @@
         <v>8564</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4156</v>
+        <v>4082</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14902</v>
+        <v>15372</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1793809085217949</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08704577436649917</v>
+        <v>0.08549822433944818</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3121503818310785</v>
+        <v>0.3219924222077636</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>17825</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12471</v>
+        <v>12556</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22088</v>
+        <v>21505</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7043093178764027</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4927427793410344</v>
+        <v>0.4961128687875249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8727390253589323</v>
+        <v>0.8496787704998474</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -4137,7 +4137,7 @@
         <v>21350</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17823</v>
+        <v>16608</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>22430</v>
@@ -4146,7 +4146,7 @@
         <v>0.9518595416848527</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7945986259339419</v>
+        <v>0.7404468522633705</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4158,19 +4158,19 @@
         <v>39176</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>32838</v>
+        <v>32368</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43584</v>
+        <v>43658</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8206190914782051</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6878496181689217</v>
+        <v>0.678007577792236</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9129542256335008</v>
+        <v>0.9145017756605518</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>42661</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31239</v>
+        <v>32490</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54198</v>
+        <v>55687</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2168230076310664</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1587746467509209</v>
+        <v>0.1651287143577355</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2754630402402261</v>
+        <v>0.2830307515983867</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -4283,19 +4283,19 @@
         <v>31321</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21869</v>
+        <v>22288</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43094</v>
+        <v>43060</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1644943313278643</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1148539786664153</v>
+        <v>0.1170547859459946</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2263265090856757</v>
+        <v>0.2261517659027354</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>71</v>
@@ -4304,19 +4304,19 @@
         <v>73981</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60621</v>
+        <v>58919</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>91358</v>
+        <v>90932</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1910876821260228</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1565798781512627</v>
+        <v>0.1521836491490819</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2359701214385141</v>
+        <v>0.2348701701215234</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>154092</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>142555</v>
+        <v>141066</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>165514</v>
+        <v>164263</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7831769923689337</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7245369597597739</v>
+        <v>0.7169692484016137</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8412253532490791</v>
+        <v>0.8348712856422645</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>141</v>
@@ -4354,19 +4354,19 @@
         <v>159084</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>147311</v>
+        <v>147345</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>168536</v>
+        <v>168117</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8355056686721356</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7736734909143241</v>
+        <v>0.773848234097264</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8851460213335847</v>
+        <v>0.8829452140540053</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>290</v>
@@ -4375,19 +4375,19 @@
         <v>313177</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>295800</v>
+        <v>296226</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>326537</v>
+        <v>328239</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8089123178739772</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7640298785614859</v>
+        <v>0.7651298298784766</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8434201218487374</v>
+        <v>0.847816350850918</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>9820</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5176</v>
+        <v>4655</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16854</v>
+        <v>16298</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2348431967614869</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1237840816075688</v>
+        <v>0.1113229053998241</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4030510355401832</v>
+        <v>0.3897564830265641</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -4740,19 +4740,19 @@
         <v>8890</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4038</v>
+        <v>3755</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19110</v>
+        <v>18634</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1830012784785638</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08312415841131726</v>
+        <v>0.07729321589281998</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3933539262571594</v>
+        <v>0.3835700433929009</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -4761,19 +4761,19 @@
         <v>18710</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10947</v>
+        <v>11301</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29912</v>
+        <v>29787</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.206982171048986</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.121100619187765</v>
+        <v>0.1250130613418746</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3309055984246667</v>
+        <v>0.3295215068384866</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>31995</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24961</v>
+        <v>25517</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36639</v>
+        <v>37160</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7651568032385132</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5969489644598168</v>
+        <v>0.6102435169734359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8762159183924312</v>
+        <v>0.8886770946001762</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>64</v>
@@ -4811,19 +4811,19 @@
         <v>39691</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29471</v>
+        <v>29947</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44543</v>
+        <v>44826</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8169987215214363</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6066460737428414</v>
+        <v>0.6164299566070995</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9168758415886826</v>
+        <v>0.92270678410718</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>96</v>
@@ -4832,19 +4832,19 @@
         <v>71685</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>60483</v>
+        <v>60608</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79448</v>
+        <v>79094</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.793017828951014</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6690944015753334</v>
+        <v>0.6704784931615142</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8788993808122351</v>
+        <v>0.8749869386581255</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>13484</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7320</v>
+        <v>7529</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21729</v>
+        <v>21058</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2730577059144889</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1482201206117754</v>
+        <v>0.1524678564777834</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4400150858316042</v>
+        <v>0.426414268445482</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -4957,19 +4957,19 @@
         <v>10785</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6511</v>
+        <v>6305</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16572</v>
+        <v>16510</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1474342772833213</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08900775785601639</v>
+        <v>0.08619330135243938</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2265414885035313</v>
+        <v>0.2256974558507505</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -4978,19 +4978,19 @@
         <v>24270</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16686</v>
+        <v>16822</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34113</v>
+        <v>34408</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.198061547381387</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1361758421098781</v>
+        <v>0.137279254598425</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2783877767166543</v>
+        <v>0.2807962593639839</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>35899</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27654</v>
+        <v>28325</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42063</v>
+        <v>41854</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7269422940855111</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5599849141683957</v>
+        <v>0.5735857315545178</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8517798793882244</v>
+        <v>0.8475321435222162</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>105</v>
@@ -5028,19 +5028,19 @@
         <v>62368</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>56581</v>
+        <v>56643</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>66642</v>
+        <v>66848</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8525657227166787</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7734585114964687</v>
+        <v>0.7743025441492495</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9109922421439837</v>
+        <v>0.9138066986475607</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>144</v>
@@ -5049,19 +5049,19 @@
         <v>98266</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>88423</v>
+        <v>88128</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>105850</v>
+        <v>105714</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.801938452618613</v>
+        <v>0.8019384526186131</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7216122232833457</v>
+        <v>0.7192037406360161</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8638241578901216</v>
+        <v>0.8627207454015751</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>21179</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13008</v>
+        <v>13207</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32373</v>
+        <v>31859</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2838050091518102</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1743153834782814</v>
+        <v>0.176976484992408</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4338151828004836</v>
+        <v>0.4269202316212108</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -5174,19 +5174,19 @@
         <v>10654</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6497</v>
+        <v>6058</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16938</v>
+        <v>16479</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1910061403401358</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1164788634967299</v>
+        <v>0.1086042515906266</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3036688172961708</v>
+        <v>0.2954356903672498</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -5195,19 +5195,19 @@
         <v>31833</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22872</v>
+        <v>22110</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45462</v>
+        <v>44336</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2441117715198327</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.175396238213536</v>
+        <v>0.1695550024089929</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3486290163797057</v>
+        <v>0.3399932950378255</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>53446</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42252</v>
+        <v>42766</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>61617</v>
+        <v>61418</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7161949908481899</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5661848171995165</v>
+        <v>0.5730797683787893</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8256846165217185</v>
+        <v>0.8230235150075916</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>78</v>
@@ -5245,19 +5245,19 @@
         <v>45123</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38839</v>
+        <v>39298</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49280</v>
+        <v>49719</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8089938596598641</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6963311827038291</v>
+        <v>0.7045643096327505</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8835211365032698</v>
+        <v>0.8913957484093734</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>133</v>
@@ -5266,19 +5266,19 @@
         <v>98569</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>84940</v>
+        <v>86066</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>107530</v>
+        <v>108292</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7558882284801671</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6513709836202942</v>
+        <v>0.6600067049621746</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.824603761786464</v>
+        <v>0.830444997591007</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>14874</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7794</v>
+        <v>7943</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23364</v>
+        <v>23545</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2749890060146024</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1440982866017595</v>
+        <v>0.1468576344836882</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.431954190969621</v>
+        <v>0.4353097980579541</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -5391,19 +5391,19 @@
         <v>19972</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12910</v>
+        <v>13154</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28740</v>
+        <v>27866</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3872234878232217</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2502917496982247</v>
+        <v>0.2550358122166282</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5572060686893167</v>
+        <v>0.5402764234417857</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -5412,19 +5412,19 @@
         <v>34846</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25302</v>
+        <v>24816</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47836</v>
+        <v>47418</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3297731157297076</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2394482823039497</v>
+        <v>0.2348528832143771</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4527066013002838</v>
+        <v>0.4487522626300421</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>39214</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30724</v>
+        <v>30543</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>46294</v>
+        <v>46145</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7250109939853978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5680458090303788</v>
+        <v>0.5646902019420458</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8559017133982404</v>
+        <v>0.8531423655163118</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -5462,19 +5462,19 @@
         <v>31606</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22838</v>
+        <v>23712</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>38668</v>
+        <v>38424</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6127765121767784</v>
+        <v>0.6127765121767783</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4427939313106833</v>
+        <v>0.4597235765582144</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7497082503017753</v>
+        <v>0.7449641877833718</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>84</v>
@@ -5483,19 +5483,19 @@
         <v>70821</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>57831</v>
+        <v>58249</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>80365</v>
+        <v>80851</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6702268842702922</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.547293398699716</v>
+        <v>0.5512477373699578</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.76055171769605</v>
+        <v>0.765147116785623</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>59357</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44562</v>
+        <v>45697</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73981</v>
+        <v>77289</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2699134302077135</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2026383402465131</v>
+        <v>0.2077981740745277</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3364132668823666</v>
+        <v>0.3514563479281673</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -5608,19 +5608,19 @@
         <v>50302</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38790</v>
+        <v>38987</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64007</v>
+        <v>65163</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.219572520671446</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1693224873647611</v>
+        <v>0.1701810265993844</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.279397094134187</v>
+        <v>0.284442176978678</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -5629,19 +5629,19 @@
         <v>109659</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>91076</v>
+        <v>91634</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>129597</v>
+        <v>132006</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2442284570583764</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2028426721003373</v>
+        <v>0.2040839481526449</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2886340903021128</v>
+        <v>0.2940006233862454</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>160554</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>145930</v>
+        <v>142622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>175349</v>
+        <v>174214</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7300865697922864</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6635867331176338</v>
+        <v>0.6485436520718326</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7973616597534872</v>
+        <v>0.7922018259254718</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>296</v>
@@ -5679,19 +5679,19 @@
         <v>178787</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>165082</v>
+        <v>163926</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>190299</v>
+        <v>190102</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7804274793285539</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7206029058658129</v>
+        <v>0.7155578230213221</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8306775126352389</v>
+        <v>0.8298189734006156</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>457</v>
@@ -5700,19 +5700,19 @@
         <v>339341</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>319403</v>
+        <v>316994</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>357924</v>
+        <v>357366</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7557715429416237</v>
+        <v>0.7557715429416235</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7113659096978872</v>
+        <v>0.7059993766137543</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7971573278996626</v>
+        <v>0.795916051847355</v>
       </c>
     </row>
     <row r="18">
